--- a/attachfile/downloadmaster/Master.xlsx
+++ b/attachfile/downloadmaster/Master.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>NoGroup</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NoMat</t>
   </si>
@@ -31,13 +25,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Color</t>
+    <t>Price(Exc Vat)</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Price</t>
+    <t>Price(Inc Vat)</t>
   </si>
 </sst>
 </file>
@@ -379,25 +370,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,15 +401,6 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
